--- a/biology/Médecine/Hubert_von_Grashey/Hubert_von_Grashey.xlsx
+++ b/biology/Médecine/Hubert_von_Grashey/Hubert_von_Grashey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hubert von Grashey, né à Grönenbach le 30 octobre 1839 et décédé le 24 août 1914 à Munich, est un psychiatre allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à l’Université de Wurtzbourg, Vienne et Berlin, et obtient son diplôme de médecin en 1867. Hubert von Grashey est le gendre du psychiatre Bernhard von Gudden (1824-1886).
 Il travaille avec Gudden au Kreis-Irrenanstalt (« Asile d’aliénés ») à Werneck. Plus tard, il est nommé directeur du Kreise-Irrenanstalt-Deggendorf, et en 1884 succède à Franz von Rinecker (1811-1883) en tant que directeur de l’hôpital psychiatrique de Wurztbourg.
@@ -546,7 +560,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Cholera-Epidemie im Juliusspitale zu Würzburg, Wurtzbourg, 1867.
 Die Wellenbewegung elastischer Röhren und der Arterienpuls des Menschen, Leipzig, 1881.
